--- a/team_specific_matrix/Pepperdine_B.xlsx
+++ b/team_specific_matrix/Pepperdine_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1767441860465116</v>
+        <v>0.1868512110726644</v>
       </c>
       <c r="C2">
-        <v>0.5906976744186047</v>
+        <v>0.5847750865051903</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.009302325581395349</v>
+        <v>0.006920415224913495</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1348837209302326</v>
+        <v>0.1453287197231834</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08837209302325581</v>
+        <v>0.07612456747404844</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.02272727272727273</v>
+        <v>0.01734104046242774</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03787878787878788</v>
+        <v>0.02890173410404624</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7954545454545454</v>
+        <v>0.7861271676300579</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.143939393939394</v>
+        <v>0.1676300578034682</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02272727272727273</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6590909090909091</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3181818181818182</v>
+        <v>0.3928571428571428</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.03496503496503497</v>
+        <v>0.0427807486631016</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01398601398601399</v>
+        <v>0.0160427807486631</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.06293706293706294</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2377622377622378</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02097902097902098</v>
+        <v>0.0213903743315508</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1888111888111888</v>
+        <v>0.1711229946524064</v>
       </c>
       <c r="R6">
-        <v>0.08391608391608392</v>
+        <v>0.08021390374331551</v>
       </c>
       <c r="S6">
-        <v>0.3566433566433567</v>
+        <v>0.374331550802139</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.07352941176470588</v>
+        <v>0.08602150537634409</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02941176470588235</v>
+        <v>0.02688172043010753</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.08823529411764706</v>
+        <v>0.07526881720430108</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.09558823529411764</v>
+        <v>0.09139784946236559</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02941176470588235</v>
+        <v>0.02688172043010753</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2867647058823529</v>
+        <v>0.2580645161290323</v>
       </c>
       <c r="R7">
-        <v>0.05147058823529412</v>
+        <v>0.05913978494623656</v>
       </c>
       <c r="S7">
-        <v>0.3455882352941176</v>
+        <v>0.3763440860215054</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.0947075208913649</v>
+        <v>0.1157894736842105</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02785515320334262</v>
+        <v>0.02736842105263158</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.03899721448467967</v>
+        <v>0.04421052631578947</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.09749303621169916</v>
+        <v>0.08421052631578947</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.03342618384401114</v>
+        <v>0.03368421052631579</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1949860724233983</v>
+        <v>0.2</v>
       </c>
       <c r="R8">
-        <v>0.09749303621169916</v>
+        <v>0.09263157894736843</v>
       </c>
       <c r="S8">
-        <v>0.415041782729805</v>
+        <v>0.4021052631578947</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1203007518796992</v>
+        <v>0.1149425287356322</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02255639097744361</v>
+        <v>0.02298850574712644</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.05263157894736842</v>
+        <v>0.05747126436781609</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.09022556390977443</v>
+        <v>0.09195402298850575</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.03007518796992481</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2030075187969925</v>
+        <v>0.1954022988505747</v>
       </c>
       <c r="R9">
-        <v>0.1052631578947368</v>
+        <v>0.08620689655172414</v>
       </c>
       <c r="S9">
-        <v>0.3759398496240601</v>
+        <v>0.396551724137931</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1195652173913044</v>
+        <v>0.1177489177489178</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02934782608695652</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.06739130434782609</v>
+        <v>0.07012987012987013</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1</v>
+        <v>0.09177489177489177</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.03695652173913044</v>
+        <v>0.03982683982683983</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2543478260869565</v>
+        <v>0.2502164502164502</v>
       </c>
       <c r="R10">
-        <v>0.075</v>
+        <v>0.0683982683982684</v>
       </c>
       <c r="S10">
-        <v>0.3173913043478261</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1644444444444444</v>
+        <v>0.1577181208053691</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1022222222222222</v>
+        <v>0.09060402684563758</v>
       </c>
       <c r="K11">
-        <v>0.2266666666666667</v>
+        <v>0.2046979865771812</v>
       </c>
       <c r="L11">
-        <v>0.4933333333333333</v>
+        <v>0.5369127516778524</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01333333333333333</v>
+        <v>0.01006711409395973</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6929824561403509</v>
+        <v>0.703030303030303</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2280701754385965</v>
+        <v>0.2121212121212121</v>
       </c>
       <c r="K12">
-        <v>0.008771929824561403</v>
+        <v>0.01212121212121212</v>
       </c>
       <c r="L12">
-        <v>0.02631578947368421</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.04385964912280702</v>
+        <v>0.04242424242424243</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.625</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.34375</v>
+        <v>0.3421052631578947</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.03125</v>
+        <v>0.02631578947368421</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01595744680851064</v>
+        <v>0.0119047619047619</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.175531914893617</v>
+        <v>0.1587301587301587</v>
       </c>
       <c r="I15">
-        <v>0.02659574468085106</v>
+        <v>0.04365079365079365</v>
       </c>
       <c r="J15">
-        <v>0.2925531914893617</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="K15">
-        <v>0.07446808510638298</v>
+        <v>0.06746031746031746</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.005319148936170213</v>
+        <v>0.003968253968253968</v>
       </c>
       <c r="N15">
-        <v>0.005319148936170213</v>
+        <v>0.003968253968253968</v>
       </c>
       <c r="O15">
-        <v>0.05851063829787234</v>
+        <v>0.05952380952380952</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3457446808510639</v>
+        <v>0.373015873015873</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.006369426751592357</v>
+        <v>0.009803921568627451</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2165605095541401</v>
+        <v>0.2156862745098039</v>
       </c>
       <c r="I16">
-        <v>0.07643312101910828</v>
+        <v>0.07352941176470588</v>
       </c>
       <c r="J16">
-        <v>0.3694267515923567</v>
+        <v>0.3382352941176471</v>
       </c>
       <c r="K16">
-        <v>0.09554140127388536</v>
+        <v>0.1274509803921569</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.04458598726114649</v>
+        <v>0.0392156862745098</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.07006369426751592</v>
+        <v>0.06862745098039216</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1210191082802548</v>
+        <v>0.1274509803921569</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01507537688442211</v>
+        <v>0.01408450704225352</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1934673366834171</v>
+        <v>0.2032193158953722</v>
       </c>
       <c r="I17">
-        <v>0.09045226130653267</v>
+        <v>0.09054325955734406</v>
       </c>
       <c r="J17">
-        <v>0.4396984924623116</v>
+        <v>0.4185110663983904</v>
       </c>
       <c r="K17">
-        <v>0.08793969849246232</v>
+        <v>0.09255533199195171</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01005025125628141</v>
+        <v>0.01006036217303823</v>
       </c>
       <c r="N17">
-        <v>0.002512562814070352</v>
+        <v>0.002012072434607646</v>
       </c>
       <c r="O17">
-        <v>0.05778894472361809</v>
+        <v>0.05835010060362173</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1030150753768844</v>
+        <v>0.1106639839034205</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02962962962962963</v>
+        <v>0.0308641975308642</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2592592592592592</v>
+        <v>0.2654320987654321</v>
       </c>
       <c r="I18">
-        <v>0.1037037037037037</v>
+        <v>0.09259259259259259</v>
       </c>
       <c r="J18">
-        <v>0.3407407407407407</v>
+        <v>0.3209876543209876</v>
       </c>
       <c r="K18">
-        <v>0.1037037037037037</v>
+        <v>0.09876543209876543</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02222222222222222</v>
+        <v>0.0308641975308642</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.04444444444444445</v>
+        <v>0.04320987654320987</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.0962962962962963</v>
+        <v>0.1172839506172839</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.009070294784580499</v>
+        <v>0.009290540540540541</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2108843537414966</v>
+        <v>0.214527027027027</v>
       </c>
       <c r="I19">
-        <v>0.07596371882086168</v>
+        <v>0.07516891891891891</v>
       </c>
       <c r="J19">
-        <v>0.3900226757369615</v>
+        <v>0.3918918918918919</v>
       </c>
       <c r="K19">
-        <v>0.1065759637188209</v>
+        <v>0.1072635135135135</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02040816326530612</v>
+        <v>0.01689189189189189</v>
       </c>
       <c r="N19">
-        <v>0.001133786848072562</v>
+        <v>0.0008445945945945946</v>
       </c>
       <c r="O19">
-        <v>0.0691609977324263</v>
+        <v>0.07179054054054054</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1167800453514739</v>
+        <v>0.1123310810810811</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Pepperdine_B.xlsx
+++ b/team_specific_matrix/Pepperdine_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1868512110726644</v>
+        <v>0.1906354515050167</v>
       </c>
       <c r="C2">
-        <v>0.5847750865051903</v>
+        <v>0.5785953177257525</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.006920415224913495</v>
+        <v>0.01003344481605351</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1453287197231834</v>
+        <v>0.1438127090301003</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07612456747404844</v>
+        <v>0.07692307692307693</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.01734104046242774</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02890173410404624</v>
+        <v>0.02824858757062147</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7861271676300579</v>
+        <v>0.7853107344632768</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1676300578034682</v>
+        <v>0.1694915254237288</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.03571428571428571</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5714285714285714</v>
+        <v>0.5806451612903226</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3928571428571428</v>
+        <v>0.3870967741935484</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.0427807486631016</v>
+        <v>0.03980099502487562</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0160427807486631</v>
+        <v>0.01492537313432836</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.05882352941176471</v>
+        <v>0.05970149253731343</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2352941176470588</v>
+        <v>0.2338308457711443</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0213903743315508</v>
+        <v>0.02487562189054726</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1711229946524064</v>
+        <v>0.1741293532338309</v>
       </c>
       <c r="R6">
-        <v>0.08021390374331551</v>
+        <v>0.07960199004975124</v>
       </c>
       <c r="S6">
-        <v>0.374331550802139</v>
+        <v>0.373134328358209</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.08602150537634409</v>
+        <v>0.07881773399014778</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02688172043010753</v>
+        <v>0.02463054187192118</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.07526881720430108</v>
+        <v>0.07389162561576355</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.09139784946236559</v>
+        <v>0.09852216748768473</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02688172043010753</v>
+        <v>0.02463054187192118</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2580645161290323</v>
+        <v>0.2660098522167488</v>
       </c>
       <c r="R7">
-        <v>0.05913978494623656</v>
+        <v>0.06403940886699508</v>
       </c>
       <c r="S7">
-        <v>0.3763440860215054</v>
+        <v>0.3694581280788177</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1157894736842105</v>
+        <v>0.1122244488977956</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02736842105263158</v>
+        <v>0.03006012024048096</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.04421052631578947</v>
+        <v>0.04208416833667335</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.08421052631578947</v>
+        <v>0.08216432865731463</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.03368421052631579</v>
+        <v>0.03607214428857716</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2</v>
+        <v>0.2064128256513026</v>
       </c>
       <c r="R8">
-        <v>0.09263157894736843</v>
+        <v>0.09619238476953908</v>
       </c>
       <c r="S8">
-        <v>0.4021052631578947</v>
+        <v>0.3947895791583166</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1149425287356322</v>
+        <v>0.1189189189189189</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02298850574712644</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.05747126436781609</v>
+        <v>0.05405405405405406</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.09195402298850575</v>
+        <v>0.08648648648648649</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.03448275862068965</v>
+        <v>0.03783783783783784</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1954022988505747</v>
+        <v>0.1891891891891892</v>
       </c>
       <c r="R9">
-        <v>0.08620689655172414</v>
+        <v>0.0918918918918919</v>
       </c>
       <c r="S9">
-        <v>0.396551724137931</v>
+        <v>0.3945945945945946</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1177489177489178</v>
+        <v>0.1124497991967871</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02857142857142857</v>
+        <v>0.02891566265060241</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.07012987012987013</v>
+        <v>0.07068273092369477</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.09177489177489177</v>
+        <v>0.09317269076305221</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.03982683982683983</v>
+        <v>0.03855421686746988</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2502164502164502</v>
+        <v>0.2530120481927711</v>
       </c>
       <c r="R10">
-        <v>0.0683982683982684</v>
+        <v>0.07309236947791165</v>
       </c>
       <c r="S10">
-        <v>0.3333333333333333</v>
+        <v>0.3301204819277108</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1577181208053691</v>
+        <v>0.1498470948012232</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09060402684563758</v>
+        <v>0.1009174311926606</v>
       </c>
       <c r="K11">
-        <v>0.2046979865771812</v>
+        <v>0.2048929663608563</v>
       </c>
       <c r="L11">
-        <v>0.5369127516778524</v>
+        <v>0.5351681957186545</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01006711409395973</v>
+        <v>0.009174311926605505</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.703030303030303</v>
+        <v>0.7016574585635359</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2121212121212121</v>
+        <v>0.2099447513812155</v>
       </c>
       <c r="K12">
-        <v>0.01212121212121212</v>
+        <v>0.01104972375690608</v>
       </c>
       <c r="L12">
-        <v>0.0303030303030303</v>
+        <v>0.03867403314917127</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.04242424242424243</v>
+        <v>0.03867403314917127</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.631578947368421</v>
+        <v>0.6511627906976745</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3421052631578947</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.02631578947368421</v>
+        <v>0.04651162790697674</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.0119047619047619</v>
+        <v>0.01119402985074627</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1587301587301587</v>
+        <v>0.1529850746268657</v>
       </c>
       <c r="I15">
-        <v>0.04365079365079365</v>
+        <v>0.04104477611940299</v>
       </c>
       <c r="J15">
-        <v>0.2777777777777778</v>
+        <v>0.2835820895522388</v>
       </c>
       <c r="K15">
-        <v>0.06746031746031746</v>
+        <v>0.06343283582089553</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.003968253968253968</v>
+        <v>0.007462686567164179</v>
       </c>
       <c r="N15">
-        <v>0.003968253968253968</v>
+        <v>0.003731343283582089</v>
       </c>
       <c r="O15">
-        <v>0.05952380952380952</v>
+        <v>0.05970149253731343</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.373015873015873</v>
+        <v>0.376865671641791</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.009803921568627451</v>
+        <v>0.009433962264150943</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2156862745098039</v>
+        <v>0.2169811320754717</v>
       </c>
       <c r="I16">
-        <v>0.07352941176470588</v>
+        <v>0.07075471698113207</v>
       </c>
       <c r="J16">
-        <v>0.3382352941176471</v>
+        <v>0.3443396226415094</v>
       </c>
       <c r="K16">
-        <v>0.1274509803921569</v>
+        <v>0.1226415094339623</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.0392156862745098</v>
+        <v>0.03773584905660377</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.06862745098039216</v>
+        <v>0.07075471698113207</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1274509803921569</v>
+        <v>0.1273584905660377</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01408450704225352</v>
+        <v>0.01478743068391867</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2032193158953722</v>
+        <v>0.1959334565619224</v>
       </c>
       <c r="I17">
-        <v>0.09054325955734406</v>
+        <v>0.09057301293900184</v>
       </c>
       <c r="J17">
-        <v>0.4185110663983904</v>
+        <v>0.4177449168207024</v>
       </c>
       <c r="K17">
-        <v>0.09255533199195171</v>
+        <v>0.09981515711645102</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01006036217303823</v>
+        <v>0.011090573012939</v>
       </c>
       <c r="N17">
-        <v>0.002012072434607646</v>
+        <v>0.001848428835489834</v>
       </c>
       <c r="O17">
-        <v>0.05835010060362173</v>
+        <v>0.05730129390018484</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1106639839034205</v>
+        <v>0.11090573012939</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.0308641975308642</v>
+        <v>0.03278688524590164</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2654320987654321</v>
+        <v>0.2513661202185792</v>
       </c>
       <c r="I18">
-        <v>0.09259259259259259</v>
+        <v>0.09836065573770492</v>
       </c>
       <c r="J18">
-        <v>0.3209876543209876</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K18">
-        <v>0.09876543209876543</v>
+        <v>0.1038251366120219</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.0308641975308642</v>
+        <v>0.03278688524590164</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.04320987654320987</v>
+        <v>0.04371584699453552</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1172839506172839</v>
+        <v>0.1038251366120219</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.009290540540540541</v>
+        <v>0.009577015163607342</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.214527027027027</v>
+        <v>0.2130885873902634</v>
       </c>
       <c r="I19">
-        <v>0.07516891891891891</v>
+        <v>0.0742218675179569</v>
       </c>
       <c r="J19">
-        <v>0.3918918918918919</v>
+        <v>0.3918595371109337</v>
       </c>
       <c r="K19">
-        <v>0.1072635135135135</v>
+        <v>0.1109337589784517</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01689189189189189</v>
+        <v>0.01755786113328013</v>
       </c>
       <c r="N19">
-        <v>0.0008445945945945946</v>
+        <v>0.0007980845969672786</v>
       </c>
       <c r="O19">
-        <v>0.07179054054054054</v>
+        <v>0.0710295291300878</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1123310810810811</v>
+        <v>0.1109337589784517</v>
       </c>
     </row>
   </sheetData>
